--- a/江西/导出模板/代理购电,年度代理购电挂牌合同分析结果.xlsx
+++ b/江西/导出模板/代理购电,年度代理购电挂牌合同分析结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\江西\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1128B103-19AC-489F-9552-8B95243A01DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C713BB2C-4127-4D9C-B11B-A8D1C811E0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总统计" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
   <si>
     <t>数据项</t>
   </si>
@@ -129,7 +129,10 @@
     <t>峰平谷统计</t>
   </si>
   <si>
-    <t>机组名称</t>
+    <t>合同类型</t>
+  </si>
+  <si>
+    <t>中长期持仓均价-中长期折算日前加权均价（元/MWh）</t>
   </si>
   <si>
     <t>合同电费</t>
@@ -257,20 +260,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -280,6 +283,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -299,7 +370,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -555,60 +626,60 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="29.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.36328125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="34" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1">
         <v>381.66264819999998</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>379.48257779750003</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>2.1800704024999402</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>8502.5199999999986</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>448.88179998400477</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>446.31777143423375</v>
       </c>
     </row>
@@ -625,867 +696,867 @@
   </sheetPr>
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11" style="2"/>
+    <col min="1" max="1" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>1873808.496</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1">
         <v>65662.947</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>59932.496999999996</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>54629.740999999995</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>65281.063999999998</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>75040.373999999996</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>39155.021999999997</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>154619.86199999999</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>71161.975000000006</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>102595.488</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>50569.402999999991</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>79384.794000000009</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>127096.785</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>94529.247999999992</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>93352.08</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>63393.364000000001</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>57208.614999999998</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>35084.92</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>27510.820999999996</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>95379.084999999992</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>124477.175</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>80222.409</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>84559.527999999991</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>81203.358000000007</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>91757.941000000006</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
+        <v>4226.84</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>247.48999999999998</v>
+      </c>
+      <c r="F3" s="1">
+        <v>198.78</v>
+      </c>
+      <c r="G3" s="1">
+        <v>177.9</v>
+      </c>
+      <c r="H3" s="1">
+        <v>133.72000000000003</v>
+      </c>
+      <c r="I3" s="1">
+        <v>130.35</v>
+      </c>
+      <c r="J3" s="1">
+        <v>152.44999999999999</v>
+      </c>
+      <c r="K3" s="1">
+        <v>257.76</v>
+      </c>
+      <c r="L3" s="1">
+        <v>138.58000000000001</v>
+      </c>
+      <c r="M3" s="1">
+        <v>213.14</v>
+      </c>
+      <c r="N3" s="1">
+        <v>127.19</v>
+      </c>
+      <c r="O3" s="1">
+        <v>162.44</v>
+      </c>
+      <c r="P3" s="1">
+        <v>222.69</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>188.07999999999998</v>
+      </c>
+      <c r="R3" s="1">
+        <v>173.76</v>
+      </c>
+      <c r="S3" s="1">
+        <v>221.14</v>
+      </c>
+      <c r="T3" s="1">
+        <v>156.13</v>
+      </c>
+      <c r="U3" s="1">
+        <v>118.53</v>
+      </c>
+      <c r="V3" s="1">
+        <v>73.31</v>
+      </c>
+      <c r="W3" s="1">
+        <v>154.34</v>
+      </c>
+      <c r="X3" s="1">
+        <v>196.7</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>167.68</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>176.72</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>187.65000000000003</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>250.31000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1">
         <v>443.31190582089692</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1">
+        <v>265.31555618408828</v>
+      </c>
+      <c r="F4" s="1">
+        <v>301.50164503471171</v>
+      </c>
+      <c r="G4" s="1">
+        <v>307.08117481731307</v>
+      </c>
+      <c r="H4" s="1">
+        <v>488.19222255459158</v>
+      </c>
+      <c r="I4" s="1">
+        <v>575.68372842347526</v>
+      </c>
+      <c r="J4" s="1">
+        <v>256.83845195145949</v>
+      </c>
+      <c r="K4" s="1">
+        <v>599.85979981378023</v>
+      </c>
+      <c r="L4" s="1">
+        <v>513.50826237552315</v>
+      </c>
+      <c r="M4" s="1">
+        <v>481.35257577179323</v>
+      </c>
+      <c r="N4" s="1">
+        <v>397.58945671829542</v>
+      </c>
+      <c r="O4" s="1">
+        <v>488.70225313962084</v>
+      </c>
+      <c r="P4" s="1">
+        <v>570.73413714131755</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>502.60127605274351</v>
+      </c>
+      <c r="R4" s="1">
+        <v>537.24723756906076</v>
+      </c>
+      <c r="S4" s="1">
+        <v>286.66620240571586</v>
+      </c>
+      <c r="T4" s="1">
+        <v>366.41654390571961</v>
+      </c>
+      <c r="U4" s="1">
+        <v>296.00033746730782</v>
+      </c>
+      <c r="V4" s="1">
+        <v>375.26696221525026</v>
+      </c>
+      <c r="W4" s="1">
+        <v>617.98033562265118</v>
+      </c>
+      <c r="X4" s="1">
+        <v>632.82752923233352</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>478.4256261927481</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>478.49438660027158</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>432.73838529176652</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>366.5772082617554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
+        <v>455.50476020502322</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1">
+        <v>345.3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>301.75</v>
+      </c>
+      <c r="G5" s="1">
+        <v>284.75</v>
+      </c>
+      <c r="H5" s="1">
+        <v>252.74999999999997</v>
+      </c>
+      <c r="I5" s="1">
+        <v>262.25</v>
+      </c>
+      <c r="J5" s="1">
+        <v>302.75000000000006</v>
+      </c>
+      <c r="K5" s="1">
+        <v>401.04999999999995</v>
+      </c>
+      <c r="L5" s="1">
+        <v>489.24999999999994</v>
+      </c>
+      <c r="M5" s="1">
+        <v>528.75</v>
+      </c>
+      <c r="N5" s="1">
+        <v>509.25000000000006</v>
+      </c>
+      <c r="O5" s="1">
+        <v>448.35</v>
+      </c>
+      <c r="P5" s="1">
+        <v>399.20000000000005</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>294</v>
+      </c>
+      <c r="R5" s="1">
+        <v>315.00000000000006</v>
+      </c>
+      <c r="S5" s="1">
+        <v>376.15</v>
+      </c>
+      <c r="T5" s="1">
+        <v>477.80000000000007</v>
+      </c>
+      <c r="U5" s="1">
+        <v>585.5</v>
+      </c>
+      <c r="V5" s="1">
+        <v>668</v>
+      </c>
+      <c r="W5" s="1">
+        <v>756.25</v>
+      </c>
+      <c r="X5" s="1">
+        <v>749.50000000000011</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>742</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>669.75</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>555.37249999999983</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>429.15000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1">
+        <v>-12.192854384126292</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-79.984443815911732</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.24835496528828571</v>
+      </c>
+      <c r="G6" s="1">
+        <v>22.33117481731307</v>
+      </c>
+      <c r="H6" s="1">
+        <v>235.44222255459161</v>
+      </c>
+      <c r="I6" s="1">
+        <v>313.43372842347526</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-45.911548048540567</v>
+      </c>
+      <c r="K6" s="1">
+        <v>198.80979981378027</v>
+      </c>
+      <c r="L6" s="1">
+        <v>24.258262375523202</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-47.397424228206773</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-111.66054328170463</v>
+      </c>
+      <c r="O6" s="1">
+        <v>40.352253139620814</v>
+      </c>
+      <c r="P6" s="1">
+        <v>171.5341371413175</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>208.60127605274351</v>
+      </c>
+      <c r="R6" s="1">
+        <v>222.2472375690607</v>
+      </c>
+      <c r="S6" s="1">
+        <v>-89.483797594284113</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-111.38345609428046</v>
+      </c>
+      <c r="U6" s="1">
+        <v>-289.49966253269218</v>
+      </c>
+      <c r="V6" s="1">
+        <v>-292.73303778474974</v>
+      </c>
+      <c r="W6" s="1">
+        <v>-138.26966437734882</v>
+      </c>
+      <c r="X6" s="1">
+        <v>-116.6724707676666</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>-263.5743738072519</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>-191.25561339972842</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>-122.63411470823331</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>-62.572791738244632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1">
+        <v>1942817.9859999998</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="2">
-        <v>265.31555618408828</v>
-      </c>
-      <c r="F3" s="2">
-        <v>301.50164503471171</v>
-      </c>
-      <c r="G3" s="2">
-        <v>307.08117481731307</v>
-      </c>
-      <c r="H3" s="2">
-        <v>488.19222255459158</v>
-      </c>
-      <c r="I3" s="2">
-        <v>575.68372842347526</v>
-      </c>
-      <c r="J3" s="2">
-        <v>256.83845195145949</v>
-      </c>
-      <c r="K3" s="2">
-        <v>599.85979981378023</v>
-      </c>
-      <c r="L3" s="2">
-        <v>513.50826237552315</v>
-      </c>
-      <c r="M3" s="2">
-        <v>481.35257577179323</v>
-      </c>
-      <c r="N3" s="2">
-        <v>397.58945671829542</v>
-      </c>
-      <c r="O3" s="2">
-        <v>488.70225313962084</v>
-      </c>
-      <c r="P3" s="2">
-        <v>570.73413714131755</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>502.60127605274351</v>
-      </c>
-      <c r="R3" s="2">
-        <v>537.24723756906076</v>
-      </c>
-      <c r="S3" s="2">
-        <v>286.66620240571586</v>
-      </c>
-      <c r="T3" s="2">
-        <v>366.41654390571961</v>
-      </c>
-      <c r="U3" s="2">
-        <v>296.00033746730782</v>
-      </c>
-      <c r="V3" s="2">
-        <v>375.26696221525026</v>
-      </c>
-      <c r="W3" s="2">
-        <v>617.98033562265118</v>
-      </c>
-      <c r="X3" s="2">
-        <v>632.82752923233352</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>478.4256261927481</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>478.49438660027158</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>432.73838529176652</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>366.5772082617554</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2">
-        <v>455.50476020502322</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E7" s="1">
+        <v>51469.758000000002</v>
+      </c>
+      <c r="F7" s="1">
+        <v>122675.14</v>
+      </c>
+      <c r="G7" s="1">
+        <v>59441.19</v>
+      </c>
+      <c r="H7" s="1">
+        <v>28562.087000000003</v>
+      </c>
+      <c r="I7" s="1">
+        <v>150163.84299999999</v>
+      </c>
+      <c r="J7" s="1">
+        <v>117142.736</v>
+      </c>
+      <c r="K7" s="1">
+        <v>98409.135999999999</v>
+      </c>
+      <c r="L7" s="1">
+        <v>20025.326000000001</v>
+      </c>
+      <c r="M7" s="1">
+        <v>73677.223000000013</v>
+      </c>
+      <c r="N7" s="1">
+        <v>142085.79499999998</v>
+      </c>
+      <c r="O7" s="1">
+        <v>85421.464999999997</v>
+      </c>
+      <c r="P7" s="1">
+        <v>90708.90400000001</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>91855.822000000015</v>
+      </c>
+      <c r="R7" s="1">
+        <v>28455.805999999997</v>
+      </c>
+      <c r="S7" s="1">
+        <v>106273.44999999998</v>
+      </c>
+      <c r="T7" s="1">
+        <v>83378.429000000004</v>
+      </c>
+      <c r="U7" s="1">
+        <v>88333.725999999995</v>
+      </c>
+      <c r="V7" s="1">
+        <v>77956.739999999991</v>
+      </c>
+      <c r="W7" s="1">
+        <v>93930.985000000001</v>
+      </c>
+      <c r="X7" s="1">
+        <v>83952.252999999997</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>58183.73</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>59228.369999999995</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>83548.256999999998</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>47937.815000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1">
+        <v>4275.6799999999994</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>141.82</v>
+      </c>
+      <c r="F8" s="1">
+        <v>210.3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>197.23000000000002</v>
+      </c>
+      <c r="H8" s="1">
+        <v>84.29</v>
+      </c>
+      <c r="I8" s="1">
+        <v>238.06</v>
+      </c>
+      <c r="J8" s="1">
+        <v>216.09</v>
+      </c>
+      <c r="K8" s="1">
+        <v>181.51999999999998</v>
+      </c>
+      <c r="L8" s="1">
+        <v>122.44</v>
+      </c>
+      <c r="M8" s="1">
+        <v>126.25999999999999</v>
+      </c>
+      <c r="N8" s="1">
+        <v>229.54999999999998</v>
+      </c>
+      <c r="O8" s="1">
+        <v>199.48</v>
+      </c>
+      <c r="P8" s="1">
+        <v>236.95999999999998</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>201.95999999999998</v>
+      </c>
+      <c r="R8" s="1">
+        <v>78.709999999999994</v>
+      </c>
+      <c r="S8" s="1">
+        <v>167.49</v>
+      </c>
+      <c r="T8" s="1">
+        <v>222.45</v>
+      </c>
+      <c r="U8" s="1">
+        <v>193.17000000000002</v>
+      </c>
+      <c r="V8" s="1">
+        <v>181.42000000000002</v>
+      </c>
+      <c r="W8" s="1">
+        <v>189.97</v>
+      </c>
+      <c r="X8" s="1">
+        <v>232.87</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>129.93</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>153.07</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>185.51</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>155.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1">
+        <v>454.38807066946077</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2">
-        <v>345.3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>301.75</v>
-      </c>
-      <c r="G4" s="2">
-        <v>284.75</v>
-      </c>
-      <c r="H4" s="2">
-        <v>252.74999999999997</v>
-      </c>
-      <c r="I4" s="2">
-        <v>262.25</v>
-      </c>
-      <c r="J4" s="2">
-        <v>302.75000000000006</v>
-      </c>
-      <c r="K4" s="2">
-        <v>401.04999999999995</v>
-      </c>
-      <c r="L4" s="2">
-        <v>489.24999999999994</v>
-      </c>
-      <c r="M4" s="2">
-        <v>528.75</v>
-      </c>
-      <c r="N4" s="2">
-        <v>509.25000000000006</v>
-      </c>
-      <c r="O4" s="2">
-        <v>448.35</v>
-      </c>
-      <c r="P4" s="2">
-        <v>399.20000000000005</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>294</v>
-      </c>
-      <c r="R4" s="2">
-        <v>315.00000000000006</v>
-      </c>
-      <c r="S4" s="2">
-        <v>376.15</v>
-      </c>
-      <c r="T4" s="2">
-        <v>477.80000000000007</v>
-      </c>
-      <c r="U4" s="2">
-        <v>585.5</v>
-      </c>
-      <c r="V4" s="2">
-        <v>668</v>
-      </c>
-      <c r="W4" s="2">
-        <v>756.25</v>
-      </c>
-      <c r="X4" s="2">
-        <v>749.50000000000011</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>742</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>669.75</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>555.37249999999983</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>429.15000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
-        <v>4226.84</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>247.48999999999998</v>
-      </c>
-      <c r="F5" s="2">
-        <v>198.78</v>
-      </c>
-      <c r="G5" s="2">
-        <v>177.9</v>
-      </c>
-      <c r="H5" s="2">
-        <v>133.72000000000003</v>
-      </c>
-      <c r="I5" s="2">
-        <v>130.35</v>
-      </c>
-      <c r="J5" s="2">
-        <v>152.44999999999999</v>
-      </c>
-      <c r="K5" s="2">
-        <v>257.76</v>
-      </c>
-      <c r="L5" s="2">
-        <v>138.58000000000001</v>
-      </c>
-      <c r="M5" s="2">
-        <v>213.14</v>
-      </c>
-      <c r="N5" s="2">
-        <v>127.19</v>
-      </c>
-      <c r="O5" s="2">
-        <v>162.44</v>
-      </c>
-      <c r="P5" s="2">
-        <v>222.69</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>188.07999999999998</v>
-      </c>
-      <c r="R5" s="2">
-        <v>173.76</v>
-      </c>
-      <c r="S5" s="2">
-        <v>221.14</v>
-      </c>
-      <c r="T5" s="2">
-        <v>156.13</v>
-      </c>
-      <c r="U5" s="2">
-        <v>118.53</v>
-      </c>
-      <c r="V5" s="2">
-        <v>73.31</v>
-      </c>
-      <c r="W5" s="2">
-        <v>154.34</v>
-      </c>
-      <c r="X5" s="2">
-        <v>196.7</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>167.68</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>176.72</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>187.65000000000003</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>250.31000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2">
-        <v>-12.192854384126292</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E9" s="1">
+        <v>362.92312790861661</v>
+      </c>
+      <c r="F9" s="1">
+        <v>583.3339990489776</v>
+      </c>
+      <c r="G9" s="1">
+        <v>301.38006388480454</v>
+      </c>
+      <c r="H9" s="1">
+        <v>338.85498872938666</v>
+      </c>
+      <c r="I9" s="1">
+        <v>630.7814962614467</v>
+      </c>
+      <c r="J9" s="1">
+        <v>542.10160581239302</v>
+      </c>
+      <c r="K9" s="1">
+        <v>542.13935654473346</v>
+      </c>
+      <c r="L9" s="1">
+        <v>163.55215615811827</v>
+      </c>
+      <c r="M9" s="1">
+        <v>583.53574370346917</v>
+      </c>
+      <c r="N9" s="1">
+        <v>618.97536484426053</v>
+      </c>
+      <c r="O9" s="1">
+        <v>428.22069881692403</v>
+      </c>
+      <c r="P9" s="1">
+        <v>382.80259959486841</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>454.82185581303241</v>
+      </c>
+      <c r="R9" s="1">
+        <v>361.52720111802819</v>
+      </c>
+      <c r="S9" s="1">
+        <v>634.50623917845826</v>
+      </c>
+      <c r="T9" s="1">
+        <v>374.81874129017763</v>
+      </c>
+      <c r="U9" s="1">
+        <v>457.28490966506178</v>
+      </c>
+      <c r="V9" s="1">
+        <v>429.70311983243295</v>
+      </c>
+      <c r="W9" s="1">
+        <v>494.4516765805127</v>
+      </c>
+      <c r="X9" s="1">
+        <v>360.51124232404345</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>447.80828138228276</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>386.93649964068726</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>450.37063770147165</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>309.01705021594796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>45001</v>
+      </c>
+      <c r="C10">
+        <v>437.23572328845944</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="2">
-        <v>-79.984443815911732</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-0.24835496528828571</v>
-      </c>
-      <c r="G6" s="2">
-        <v>22.33117481731307</v>
-      </c>
-      <c r="H6" s="2">
-        <v>235.44222255459161</v>
-      </c>
-      <c r="I6" s="2">
-        <v>313.43372842347526</v>
-      </c>
-      <c r="J6" s="2">
-        <v>-45.911548048540567</v>
-      </c>
-      <c r="K6" s="2">
-        <v>198.80979981378027</v>
-      </c>
-      <c r="L6" s="2">
-        <v>24.258262375523202</v>
-      </c>
-      <c r="M6" s="2">
-        <v>-47.397424228206773</v>
-      </c>
-      <c r="N6" s="2">
-        <v>-111.66054328170463</v>
-      </c>
-      <c r="O6" s="2">
-        <v>40.352253139620814</v>
-      </c>
-      <c r="P6" s="2">
-        <v>171.5341371413175</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>208.60127605274351</v>
-      </c>
-      <c r="R6" s="2">
-        <v>222.2472375690607</v>
-      </c>
-      <c r="S6" s="2">
-        <v>-89.483797594284113</v>
-      </c>
-      <c r="T6" s="2">
-        <v>-111.38345609428046</v>
-      </c>
-      <c r="U6" s="2">
-        <v>-289.49966253269218</v>
-      </c>
-      <c r="V6" s="2">
-        <v>-292.73303778474974</v>
-      </c>
-      <c r="W6" s="2">
-        <v>-138.26966437734882</v>
-      </c>
-      <c r="X6" s="2">
-        <v>-116.6724707676666</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>-263.5743738072519</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>-191.25561339972842</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>-122.63411470823331</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>-62.572791738244632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2">
-        <v>1942817.9859999998</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2">
-        <v>51469.758000000002</v>
-      </c>
-      <c r="F7" s="2">
-        <v>122675.14</v>
-      </c>
-      <c r="G7" s="2">
-        <v>59441.19</v>
-      </c>
-      <c r="H7" s="2">
-        <v>28562.087000000003</v>
-      </c>
-      <c r="I7" s="2">
-        <v>150163.84299999999</v>
-      </c>
-      <c r="J7" s="2">
-        <v>117142.736</v>
-      </c>
-      <c r="K7" s="2">
-        <v>98409.135999999999</v>
-      </c>
-      <c r="L7" s="2">
-        <v>20025.326000000001</v>
-      </c>
-      <c r="M7" s="2">
-        <v>73677.223000000013</v>
-      </c>
-      <c r="N7" s="2">
-        <v>142085.79499999998</v>
-      </c>
-      <c r="O7" s="2">
-        <v>85421.464999999997</v>
-      </c>
-      <c r="P7" s="2">
-        <v>90708.90400000001</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>91855.822000000015</v>
-      </c>
-      <c r="R7" s="2">
-        <v>28455.805999999997</v>
-      </c>
-      <c r="S7" s="2">
-        <v>106273.44999999998</v>
-      </c>
-      <c r="T7" s="2">
-        <v>83378.429000000004</v>
-      </c>
-      <c r="U7" s="2">
-        <v>88333.725999999995</v>
-      </c>
-      <c r="V7" s="2">
-        <v>77956.739999999991</v>
-      </c>
-      <c r="W7" s="2">
-        <v>93930.985000000001</v>
-      </c>
-      <c r="X7" s="2">
-        <v>83952.252999999997</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>58183.73</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>59228.369999999995</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>83548.256999999998</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>47937.815000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="2">
-        <v>454.38807066946077</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2">
-        <v>362.92312790861661</v>
-      </c>
-      <c r="F8" s="2">
-        <v>583.3339990489776</v>
-      </c>
-      <c r="G8" s="2">
-        <v>301.38006388480454</v>
-      </c>
-      <c r="H8" s="2">
-        <v>338.85498872938666</v>
-      </c>
-      <c r="I8" s="2">
-        <v>630.7814962614467</v>
-      </c>
-      <c r="J8" s="2">
-        <v>542.10160581239302</v>
-      </c>
-      <c r="K8" s="2">
-        <v>542.13935654473346</v>
-      </c>
-      <c r="L8" s="2">
-        <v>163.55215615811827</v>
-      </c>
-      <c r="M8" s="2">
-        <v>583.53574370346917</v>
-      </c>
-      <c r="N8" s="2">
-        <v>618.97536484426053</v>
-      </c>
-      <c r="O8" s="2">
-        <v>428.22069881692403</v>
-      </c>
-      <c r="P8" s="2">
-        <v>382.80259959486841</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>454.82185581303241</v>
-      </c>
-      <c r="R8" s="2">
-        <v>361.52720111802819</v>
-      </c>
-      <c r="S8" s="2">
-        <v>634.50623917845826</v>
-      </c>
-      <c r="T8" s="2">
-        <v>374.81874129017763</v>
-      </c>
-      <c r="U8" s="2">
-        <v>457.28490966506178</v>
-      </c>
-      <c r="V8" s="2">
-        <v>429.70311983243295</v>
-      </c>
-      <c r="W8" s="2">
-        <v>494.4516765805127</v>
-      </c>
-      <c r="X8" s="2">
-        <v>360.51124232404345</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>447.80828138228276</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>386.93649964068726</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>450.37063770147165</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>309.01705021594796</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="2">
-        <v>437.23572328845944</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="E10">
         <v>460.9349340713581</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10">
         <v>598.91542629576793</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G10">
         <v>484.1830660903513</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H10">
         <v>254.90235021948038</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I10">
         <v>406.13848525581784</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J10">
         <v>440.87806365403299</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K10">
         <v>427.89212896650514</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L10">
         <v>596.68757207611884</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M10">
         <v>428.91122881355932</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N10">
         <v>489.97514397734693</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O10">
         <v>380.28889237016239</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P10">
         <v>383.16006193028352</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q10">
         <v>498.10861111111109</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R10">
         <v>505.3906457248126</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S10">
         <v>489.33279061436497</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T10">
         <v>458.96248561474488</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U10">
         <v>314.54766319821914</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V10">
         <v>383.21618812699819</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W10">
         <v>306.50319339895771</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X10">
         <v>329.68292158715155</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y10">
         <v>367.54266104825672</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="Z10">
         <v>514.83863118181227</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA10">
         <v>518.51116044957155</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AB10" s="1">
         <v>468.93175336814295</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>45001</v>
-      </c>
-      <c r="C10">
-        <v>4275.6799999999994</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>141.82</v>
-      </c>
-      <c r="F10">
-        <v>210.3</v>
-      </c>
-      <c r="G10">
-        <v>197.23000000000002</v>
-      </c>
-      <c r="H10">
-        <v>84.29</v>
-      </c>
-      <c r="I10">
-        <v>238.06</v>
-      </c>
-      <c r="J10">
-        <v>216.09</v>
-      </c>
-      <c r="K10">
-        <v>181.51999999999998</v>
-      </c>
-      <c r="L10">
-        <v>122.44</v>
-      </c>
-      <c r="M10">
-        <v>126.25999999999999</v>
-      </c>
-      <c r="N10">
-        <v>229.54999999999998</v>
-      </c>
-      <c r="O10">
-        <v>199.48</v>
-      </c>
-      <c r="P10">
-        <v>236.95999999999998</v>
-      </c>
-      <c r="Q10">
-        <v>201.95999999999998</v>
-      </c>
-      <c r="R10">
-        <v>78.709999999999994</v>
-      </c>
-      <c r="S10">
-        <v>167.49</v>
-      </c>
-      <c r="T10">
-        <v>222.45</v>
-      </c>
-      <c r="U10">
-        <v>193.17000000000002</v>
-      </c>
-      <c r="V10">
-        <v>181.42000000000002</v>
-      </c>
-      <c r="W10">
-        <v>189.97</v>
-      </c>
-      <c r="X10">
-        <v>232.87</v>
-      </c>
-      <c r="Y10">
-        <v>129.93</v>
-      </c>
-      <c r="Z10">
-        <v>153.07</v>
-      </c>
-      <c r="AA10">
-        <v>185.51</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>155.13</v>
-      </c>
-    </row>
     <row r="11" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45001</v>
       </c>
       <c r="C11">
         <v>17.152347381001334</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>38</v>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E11">
         <v>-98.011806162741493</v>
@@ -1556,7 +1627,7 @@
       <c r="AA11">
         <v>-68.140522748099897</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AB11" s="1">
         <v>-159.91470315219499</v>
       </c>
     </row>
@@ -1579,440 +1650,440 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11" style="2"/>
+    <col min="1" max="1" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>1873808.496</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1">
         <v>65662.947</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>59932.496999999996</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>54629.740999999995</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>65281.063999999998</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>75040.373999999996</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>39155.021999999997</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>154619.86199999999</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>71161.975000000006</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>102595.488</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>50569.402999999991</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>79384.794000000009</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>127096.785</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>94529.247999999992</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>93352.08</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>63393.364000000001</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>57208.614999999998</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>35084.92</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>27510.820999999996</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>95379.084999999992</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>124477.175</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>80222.409</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>84559.527999999991</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>81203.358000000007</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>91757.941000000006</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
         <v>1925345.7406250003</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1">
         <v>85458.296999999991</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>59981.865000000005</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>50657.025000000001</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>33797.730000000003</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>34184.287499999999</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>46154.237500000003</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>103374.64799999999</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>67800.264999999999</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>112697.77499999999</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>64771.507500000007</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>72829.974000000002</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>88897.848000000013</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>55295.519999999997</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>54734.400000000009</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>83181.810999999987</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>74598.914000000004</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>69399.315000000002</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>48971.08</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>116719.625</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>147426.65000000002</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>124418.56</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>118358.22</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>104215.64962499999</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>107420.53650000002</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45000</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1">
         <v>-19795.349999999991</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>-49.368000000009488</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>3972.7159999999931</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>31483.333999999995</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>40856.086499999998</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>-6999.2155000000057</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>51245.214000000007</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>3361.7100000000064</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>-10102.286999999997</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>-14202.104500000016</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>6554.820000000007</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>38198.936999999991</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>39233.727999999996</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>38617.679999999993</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>-19788.446999999986</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="1">
         <v>-17390.299000000006</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="1">
         <v>-34314.395000000004</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="1">
         <v>-21460.259000000005</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="1">
         <v>-21340.540000000008</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="1">
         <v>-22949.47500000002</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="1">
         <v>-44196.150999999998</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="1">
         <v>-33798.69200000001</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="1">
         <v>-23012.291624999983</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="1">
         <v>-15662.59550000001</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45001</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
         <v>1942817.9859999998</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1">
         <v>51469.758000000002</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>122675.14</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>59441.19</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>28562.087000000003</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>150163.84299999999</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>117142.736</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>98409.135999999999</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>20025.326000000001</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>73677.223000000013</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>142085.79499999998</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>85421.464999999997</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>90708.90400000001</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>91855.822000000015</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>28455.805999999997</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>106273.44999999998</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
         <v>83378.429000000004</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="1">
         <v>88333.725999999995</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="1">
         <v>77956.739999999991</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="1">
         <v>93930.985000000001</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="1">
         <v>83952.252999999997</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="1">
         <v>58183.73</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="1">
         <v>59228.369999999995</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="1">
         <v>83548.256999999998</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="1">
         <v>47937.815000000002</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45001</v>
       </c>
       <c r="C6">
         <v>1869480.0373499999</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E6">
         <v>65369.792350000003</v>
@@ -2083,16 +2154,16 @@
       <c r="AA6">
         <v>96189.005375000008</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6" s="1">
         <v>72745.382900000011</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45001</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-13900.034350000002</v>
@@ -2163,12 +2234,12 @@
       <c r="AA7">
         <v>-12640.74837500001</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="1">
         <v>-24807.567900000009</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2189,596 +2260,596 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="29.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>4226.84</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>247.48999999999998</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>198.78</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>177.9</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>133.72000000000003</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>130.35</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>152.44999999999999</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>257.76</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>138.58000000000001</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>213.14</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>127.19</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>162.44</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>222.69</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>188.07999999999998</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>173.76</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>221.14</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>156.13</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>118.53</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>73.31</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>154.34</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>196.7</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>167.68</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>176.72</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>187.65000000000003</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>250.31000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
         <v>443.31190582089692</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1">
         <v>265.31555618408828</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>301.50164503471171</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>307.08117481731307</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>488.19222255459158</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>575.68372842347526</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>256.83845195145949</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>599.85979981378023</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>513.50826237552315</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>481.35257577179323</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>397.58945671829542</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>488.70225313962084</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>570.73413714131755</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>502.60127605274351</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>537.24723756906076</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>286.66620240571586</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>366.41654390571961</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>296.00033746730782</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>375.26696221525026</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>617.98033562265118</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>632.82752923233352</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>478.4256261927481</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>478.49438660027158</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>432.73838529176652</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>366.5772082617554</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45000</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1">
         <v>455.50476020502322</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1">
+        <v>345.3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>301.75</v>
+      </c>
+      <c r="G4" s="1">
+        <v>284.75</v>
+      </c>
+      <c r="H4" s="1">
+        <v>252.74999999999997</v>
+      </c>
+      <c r="I4" s="1">
+        <v>262.25</v>
+      </c>
+      <c r="J4" s="1">
+        <v>302.75000000000006</v>
+      </c>
+      <c r="K4" s="1">
+        <v>401.04999999999995</v>
+      </c>
+      <c r="L4" s="1">
+        <v>489.24999999999994</v>
+      </c>
+      <c r="M4" s="1">
+        <v>528.75</v>
+      </c>
+      <c r="N4" s="1">
+        <v>509.25000000000006</v>
+      </c>
+      <c r="O4" s="1">
+        <v>448.35</v>
+      </c>
+      <c r="P4" s="1">
+        <v>399.20000000000005</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>294</v>
+      </c>
+      <c r="R4" s="1">
+        <v>315.00000000000006</v>
+      </c>
+      <c r="S4" s="1">
+        <v>376.15</v>
+      </c>
+      <c r="T4" s="1">
+        <v>477.80000000000007</v>
+      </c>
+      <c r="U4" s="1">
+        <v>585.5</v>
+      </c>
+      <c r="V4" s="1">
+        <v>668</v>
+      </c>
+      <c r="W4" s="1">
+        <v>756.25</v>
+      </c>
+      <c r="X4" s="1">
+        <v>749.50000000000011</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>742</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>669.75</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>555.37249999999983</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>429.15000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
+        <v>4275.6799999999994</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>141.82</v>
+      </c>
+      <c r="F5" s="1">
+        <v>210.3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>197.23000000000002</v>
+      </c>
+      <c r="H5" s="1">
+        <v>84.29</v>
+      </c>
+      <c r="I5" s="1">
+        <v>238.06</v>
+      </c>
+      <c r="J5" s="1">
+        <v>216.09</v>
+      </c>
+      <c r="K5" s="1">
+        <v>181.51999999999998</v>
+      </c>
+      <c r="L5" s="1">
+        <v>122.44</v>
+      </c>
+      <c r="M5" s="1">
+        <v>126.25999999999999</v>
+      </c>
+      <c r="N5" s="1">
+        <v>229.54999999999998</v>
+      </c>
+      <c r="O5" s="1">
+        <v>199.48</v>
+      </c>
+      <c r="P5" s="1">
+        <v>236.95999999999998</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>201.95999999999998</v>
+      </c>
+      <c r="R5" s="1">
+        <v>78.709999999999994</v>
+      </c>
+      <c r="S5" s="1">
+        <v>167.49</v>
+      </c>
+      <c r="T5" s="1">
+        <v>222.45</v>
+      </c>
+      <c r="U5" s="1">
+        <v>193.17000000000002</v>
+      </c>
+      <c r="V5" s="1">
+        <v>181.42000000000002</v>
+      </c>
+      <c r="W5" s="1">
+        <v>189.97</v>
+      </c>
+      <c r="X5" s="1">
+        <v>232.87</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>129.93</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>153.07</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>185.51</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>155.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1">
+        <v>454.38807066946077</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2">
-        <v>345.3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>301.75</v>
-      </c>
-      <c r="G4" s="2">
-        <v>284.75</v>
-      </c>
-      <c r="H4" s="2">
-        <v>252.74999999999997</v>
-      </c>
-      <c r="I4" s="2">
-        <v>262.25</v>
-      </c>
-      <c r="J4" s="2">
-        <v>302.75000000000006</v>
-      </c>
-      <c r="K4" s="2">
-        <v>401.04999999999995</v>
-      </c>
-      <c r="L4" s="2">
-        <v>489.24999999999994</v>
-      </c>
-      <c r="M4" s="2">
-        <v>528.75</v>
-      </c>
-      <c r="N4" s="2">
-        <v>509.25000000000006</v>
-      </c>
-      <c r="O4" s="2">
-        <v>448.35</v>
-      </c>
-      <c r="P4" s="2">
-        <v>399.20000000000005</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>294</v>
-      </c>
-      <c r="R4" s="2">
-        <v>315.00000000000006</v>
-      </c>
-      <c r="S4" s="2">
-        <v>376.15</v>
-      </c>
-      <c r="T4" s="2">
-        <v>477.80000000000007</v>
-      </c>
-      <c r="U4" s="2">
-        <v>585.5</v>
-      </c>
-      <c r="V4" s="2">
-        <v>668</v>
-      </c>
-      <c r="W4" s="2">
-        <v>756.25</v>
-      </c>
-      <c r="X4" s="2">
-        <v>749.50000000000011</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>742</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>669.75</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>555.37249999999983</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>429.15000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="E6" s="1">
+        <v>362.92312790861661</v>
+      </c>
+      <c r="F6" s="1">
+        <v>583.3339990489776</v>
+      </c>
+      <c r="G6" s="1">
+        <v>301.38006388480454</v>
+      </c>
+      <c r="H6" s="1">
+        <v>338.85498872938666</v>
+      </c>
+      <c r="I6" s="1">
+        <v>630.7814962614467</v>
+      </c>
+      <c r="J6" s="1">
+        <v>542.10160581239302</v>
+      </c>
+      <c r="K6" s="1">
+        <v>542.13935654473346</v>
+      </c>
+      <c r="L6" s="1">
+        <v>163.55215615811827</v>
+      </c>
+      <c r="M6" s="1">
+        <v>583.53574370346917</v>
+      </c>
+      <c r="N6" s="1">
+        <v>618.97536484426053</v>
+      </c>
+      <c r="O6" s="1">
+        <v>428.22069881692403</v>
+      </c>
+      <c r="P6" s="1">
+        <v>382.80259959486841</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>454.82185581303241</v>
+      </c>
+      <c r="R6" s="1">
+        <v>361.52720111802819</v>
+      </c>
+      <c r="S6" s="1">
+        <v>634.50623917845826</v>
+      </c>
+      <c r="T6" s="1">
+        <v>374.81874129017763</v>
+      </c>
+      <c r="U6" s="1">
+        <v>457.28490966506178</v>
+      </c>
+      <c r="V6" s="1">
+        <v>429.70311983243295</v>
+      </c>
+      <c r="W6" s="1">
+        <v>494.4516765805127</v>
+      </c>
+      <c r="X6" s="1">
+        <v>360.51124232404345</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>447.80828138228276</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>386.93649964068726</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>450.37063770147165</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>309.01705021594796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>45001</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
-        <v>4275.6799999999994</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>141.82</v>
-      </c>
-      <c r="F5" s="2">
-        <v>210.3</v>
-      </c>
-      <c r="G5" s="2">
-        <v>197.23000000000002</v>
-      </c>
-      <c r="H5" s="2">
-        <v>84.29</v>
-      </c>
-      <c r="I5" s="2">
-        <v>238.06</v>
-      </c>
-      <c r="J5" s="2">
-        <v>216.09</v>
-      </c>
-      <c r="K5" s="2">
-        <v>181.51999999999998</v>
-      </c>
-      <c r="L5" s="2">
-        <v>122.44</v>
-      </c>
-      <c r="M5" s="2">
-        <v>126.25999999999999</v>
-      </c>
-      <c r="N5" s="2">
-        <v>229.54999999999998</v>
-      </c>
-      <c r="O5" s="2">
-        <v>199.48</v>
-      </c>
-      <c r="P5" s="2">
-        <v>236.95999999999998</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>201.95999999999998</v>
-      </c>
-      <c r="R5" s="2">
-        <v>78.709999999999994</v>
-      </c>
-      <c r="S5" s="2">
-        <v>167.49</v>
-      </c>
-      <c r="T5" s="2">
-        <v>222.45</v>
-      </c>
-      <c r="U5" s="2">
-        <v>193.17000000000002</v>
-      </c>
-      <c r="V5" s="2">
-        <v>181.42000000000002</v>
-      </c>
-      <c r="W5" s="2">
-        <v>189.97</v>
-      </c>
-      <c r="X5" s="2">
-        <v>232.87</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>129.93</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>153.07</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>185.51</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>155.13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2">
-        <v>454.38807066946077</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2">
-        <v>362.92312790861661</v>
-      </c>
-      <c r="F6" s="2">
-        <v>583.3339990489776</v>
-      </c>
-      <c r="G6" s="2">
-        <v>301.38006388480454</v>
-      </c>
-      <c r="H6" s="2">
-        <v>338.85498872938666</v>
-      </c>
-      <c r="I6" s="2">
-        <v>630.7814962614467</v>
-      </c>
-      <c r="J6" s="2">
-        <v>542.10160581239302</v>
-      </c>
-      <c r="K6" s="2">
-        <v>542.13935654473346</v>
-      </c>
-      <c r="L6" s="2">
-        <v>163.55215615811827</v>
-      </c>
-      <c r="M6" s="2">
-        <v>583.53574370346917</v>
-      </c>
-      <c r="N6" s="2">
-        <v>618.97536484426053</v>
-      </c>
-      <c r="O6" s="2">
-        <v>428.22069881692403</v>
-      </c>
-      <c r="P6" s="2">
-        <v>382.80259959486841</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>454.82185581303241</v>
-      </c>
-      <c r="R6" s="2">
-        <v>361.52720111802819</v>
-      </c>
-      <c r="S6" s="2">
-        <v>634.50623917845826</v>
-      </c>
-      <c r="T6" s="2">
-        <v>374.81874129017763</v>
-      </c>
-      <c r="U6" s="2">
-        <v>457.28490966506178</v>
-      </c>
-      <c r="V6" s="2">
-        <v>429.70311983243295</v>
-      </c>
-      <c r="W6" s="2">
-        <v>494.4516765805127</v>
-      </c>
-      <c r="X6" s="2">
-        <v>360.51124232404345</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>447.80828138228276</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>386.93649964068726</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>450.37063770147165</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>309.01705021594796</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="1">
         <v>437.23572328845944</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1">
         <v>460.9349340713581</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>598.91542629576793</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>484.1830660903513</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>254.90235021948038</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>406.13848525581784</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>440.87806365403299</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>427.89212896650514</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>596.68757207611884</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>428.91122881355932</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>489.97514397734693</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>380.28889237016239</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>383.16006193028352</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>498.10861111111109</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>505.3906457248126</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <v>489.33279061436497</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="1">
         <v>458.96248561474488</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="1">
         <v>314.54766319821914</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="1">
         <v>383.21618812699819</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="1">
         <v>306.50319339895771</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="1">
         <v>329.68292158715155</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="1">
         <v>367.54266104825672</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="1">
         <v>514.83863118181227</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7" s="1">
         <v>518.51116044957155</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="1">
         <v>468.93175336814295</v>
       </c>
     </row>
@@ -2801,7 +2872,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2812,56 +2883,56 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3">
         <v>1056.9699999999998</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>1662.48</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>2954.2899999999963</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>2828.7800000000025</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3">
         <v>12.431255674788178</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>19.552791407723827</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>34.746051758772651</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>33.269901158715328</v>
       </c>
     </row>
@@ -2876,104 +2947,50 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="8.7265625" customWidth="1"/>
-    <col min="4" max="4" width="20.90625" customWidth="1"/>
-    <col min="5" max="28" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="9.1796875"/>
+    <col min="3" max="3" width="29.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="20.90625" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB1" s="4">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/江西/导出模板/代理购电,年度代理购电挂牌合同分析结果.xlsx
+++ b/江西/导出模板/代理购电,年度代理购电挂牌合同分析结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\江西\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C713BB2C-4127-4D9C-B11B-A8D1C811E0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51CA1465-47E2-4206-9485-F72AAB6887D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="50">
   <si>
     <t>数据项</t>
   </si>
@@ -694,7 +694,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -1631,6 +1631,421 @@
         <v>-159.91470315219499</v>
       </c>
     </row>
+    <row r="12" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>3816626.4819999998</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>117132.705</v>
+      </c>
+      <c r="F12">
+        <v>182607.63699999999</v>
+      </c>
+      <c r="G12">
+        <v>114070.931</v>
+      </c>
+      <c r="H12">
+        <v>93843.150999999998</v>
+      </c>
+      <c r="I12">
+        <v>225204.21699999998</v>
+      </c>
+      <c r="J12">
+        <v>156297.75799999997</v>
+      </c>
+      <c r="K12">
+        <v>253028.99799999996</v>
+      </c>
+      <c r="L12">
+        <v>91187.301000000007</v>
+      </c>
+      <c r="M12">
+        <v>176272.71100000001</v>
+      </c>
+      <c r="N12">
+        <v>192655.19799999997</v>
+      </c>
+      <c r="O12">
+        <v>164806.25900000002</v>
+      </c>
+      <c r="P12">
+        <v>217805.68900000001</v>
+      </c>
+      <c r="Q12">
+        <v>186385.07</v>
+      </c>
+      <c r="R12">
+        <v>121807.886</v>
+      </c>
+      <c r="S12">
+        <v>169666.81399999998</v>
+      </c>
+      <c r="T12">
+        <v>140587.04399999999</v>
+      </c>
+      <c r="U12">
+        <v>123418.64600000001</v>
+      </c>
+      <c r="V12">
+        <v>105467.56099999999</v>
+      </c>
+      <c r="W12">
+        <v>189310.07</v>
+      </c>
+      <c r="X12">
+        <v>208429.42800000001</v>
+      </c>
+      <c r="Y12">
+        <v>138406.139</v>
+      </c>
+      <c r="Z12">
+        <v>143787.89799999999</v>
+      </c>
+      <c r="AA12">
+        <v>164751.61499999999</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>139695.75599999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>8502.5199999999986</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>389.31</v>
+      </c>
+      <c r="F13">
+        <v>409.08000000000004</v>
+      </c>
+      <c r="G13">
+        <v>375.13</v>
+      </c>
+      <c r="H13">
+        <v>218.01000000000005</v>
+      </c>
+      <c r="I13">
+        <v>368.40999999999997</v>
+      </c>
+      <c r="J13">
+        <v>368.54</v>
+      </c>
+      <c r="K13">
+        <v>439.28</v>
+      </c>
+      <c r="L13">
+        <v>261.02</v>
+      </c>
+      <c r="M13">
+        <v>339.4</v>
+      </c>
+      <c r="N13">
+        <v>356.74</v>
+      </c>
+      <c r="O13">
+        <v>361.91999999999996</v>
+      </c>
+      <c r="P13">
+        <v>459.65</v>
+      </c>
+      <c r="Q13">
+        <v>390.03999999999996</v>
+      </c>
+      <c r="R13">
+        <v>252.47</v>
+      </c>
+      <c r="S13">
+        <v>388.63</v>
+      </c>
+      <c r="T13">
+        <v>378.58</v>
+      </c>
+      <c r="U13">
+        <v>311.7</v>
+      </c>
+      <c r="V13">
+        <v>254.73000000000002</v>
+      </c>
+      <c r="W13">
+        <v>344.31</v>
+      </c>
+      <c r="X13">
+        <v>429.57000000000005</v>
+      </c>
+      <c r="Y13">
+        <v>297.61</v>
+      </c>
+      <c r="Z13">
+        <v>329.78999999999996</v>
+      </c>
+      <c r="AA13">
+        <v>373.16</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>405.44000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>448.88179998400477</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>300.8725822609232</v>
+      </c>
+      <c r="F14">
+        <v>446.38612740784191</v>
+      </c>
+      <c r="G14">
+        <v>304.08373363900512</v>
+      </c>
+      <c r="H14">
+        <v>430.45342415485516</v>
+      </c>
+      <c r="I14">
+        <v>611.28692760782826</v>
+      </c>
+      <c r="J14">
+        <v>424.09984804905832</v>
+      </c>
+      <c r="K14">
+        <v>576.00846384993622</v>
+      </c>
+      <c r="L14">
+        <v>349.3498620795342</v>
+      </c>
+      <c r="M14">
+        <v>519.36567766647033</v>
+      </c>
+      <c r="N14">
+        <v>540.04372372035652</v>
+      </c>
+      <c r="O14">
+        <v>455.36654232979674</v>
+      </c>
+      <c r="P14">
+        <v>473.8511671924291</v>
+      </c>
+      <c r="Q14">
+        <v>477.86142446928528</v>
+      </c>
+      <c r="R14">
+        <v>482.46479185645819</v>
+      </c>
+      <c r="S14">
+        <v>436.57672850783518</v>
+      </c>
+      <c r="T14">
+        <v>371.35359501294312</v>
+      </c>
+      <c r="U14">
+        <v>395.95330766762919</v>
+      </c>
+      <c r="V14">
+        <v>414.03667019981935</v>
+      </c>
+      <c r="W14">
+        <v>549.82448955882785</v>
+      </c>
+      <c r="X14">
+        <v>485.20480480480478</v>
+      </c>
+      <c r="Y14">
+        <v>465.05876482645067</v>
+      </c>
+      <c r="Z14">
+        <v>435.998356529913</v>
+      </c>
+      <c r="AA14">
+        <v>441.50395272805224</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>344.55346290449876</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>446.31777143423375</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>387.4241333384706</v>
+      </c>
+      <c r="F15">
+        <v>454.51691392881588</v>
+      </c>
+      <c r="G15">
+        <v>389.6048066670221</v>
+      </c>
+      <c r="H15">
+        <v>253.58217100133015</v>
+      </c>
+      <c r="I15">
+        <v>355.22818408837986</v>
+      </c>
+      <c r="J15">
+        <v>383.740104941119</v>
+      </c>
+      <c r="K15">
+        <v>412.1417484292478</v>
+      </c>
+      <c r="L15">
+        <v>539.64712023982838</v>
+      </c>
+      <c r="M15">
+        <v>491.60903579846786</v>
+      </c>
+      <c r="N15">
+        <v>496.84728878174576</v>
+      </c>
+      <c r="O15">
+        <v>410.83665520004422</v>
+      </c>
+      <c r="P15">
+        <v>390.93104813445018</v>
+      </c>
+      <c r="Q15">
+        <v>399.68601963901136</v>
+      </c>
+      <c r="R15">
+        <v>374.35615211708324</v>
+      </c>
+      <c r="S15">
+        <v>424.92900728199055</v>
+      </c>
+      <c r="T15">
+        <v>466.73125607533422</v>
+      </c>
+      <c r="U15">
+        <v>417.58257009945464</v>
+      </c>
+      <c r="V15">
+        <v>465.17552251403441</v>
+      </c>
+      <c r="W15">
+        <v>508.10617365165109</v>
+      </c>
+      <c r="X15">
+        <v>521.91706113089833</v>
+      </c>
+      <c r="Y15">
+        <v>578.52013692416244</v>
+      </c>
+      <c r="Z15">
+        <v>597.84884100488205</v>
+      </c>
+      <c r="AA15">
+        <v>537.04752653017465</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>444.37134816495666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>2.5640285497710238</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>-86.551551077547401</v>
+      </c>
+      <c r="F16">
+        <v>-8.1307865209739703</v>
+      </c>
+      <c r="G16">
+        <v>-85.521073028016986</v>
+      </c>
+      <c r="H16">
+        <v>176.871253153525</v>
+      </c>
+      <c r="I16">
+        <v>256.0587435194484</v>
+      </c>
+      <c r="J16">
+        <v>40.359743107939323</v>
+      </c>
+      <c r="K16">
+        <v>163.86671542068842</v>
+      </c>
+      <c r="L16">
+        <v>-190.29725816029418</v>
+      </c>
+      <c r="M16">
+        <v>27.756641868002475</v>
+      </c>
+      <c r="N16">
+        <v>43.196434938610764</v>
+      </c>
+      <c r="O16">
+        <v>44.529887129752524</v>
+      </c>
+      <c r="P16">
+        <v>82.920119057978923</v>
+      </c>
+      <c r="Q16">
+        <v>78.175404830273919</v>
+      </c>
+      <c r="R16">
+        <v>108.10863973937495</v>
+      </c>
+      <c r="S16">
+        <v>11.647721225844634</v>
+      </c>
+      <c r="T16">
+        <v>-95.377661062391098</v>
+      </c>
+      <c r="U16">
+        <v>-21.629262431825452</v>
+      </c>
+      <c r="V16">
+        <v>-51.138852314215058</v>
+      </c>
+      <c r="W16">
+        <v>41.718315907176759</v>
+      </c>
+      <c r="X16">
+        <v>-36.712256326093552</v>
+      </c>
+      <c r="Y16">
+        <v>-113.46137209771177</v>
+      </c>
+      <c r="Z16">
+        <v>-161.85048447496905</v>
+      </c>
+      <c r="AA16">
+        <v>-95.54357380212241</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>-99.817885260457899</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1642,7 +2057,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2239,7 +2654,250 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>3816626.4819999998</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>117132.705</v>
+      </c>
+      <c r="F8">
+        <v>182607.63699999999</v>
+      </c>
+      <c r="G8">
+        <v>114070.931</v>
+      </c>
+      <c r="H8">
+        <v>93843.150999999998</v>
+      </c>
+      <c r="I8">
+        <v>225204.21699999998</v>
+      </c>
+      <c r="J8">
+        <v>156297.75799999997</v>
+      </c>
+      <c r="K8">
+        <v>253028.99799999996</v>
+      </c>
+      <c r="L8">
+        <v>91187.301000000007</v>
+      </c>
+      <c r="M8">
+        <v>176272.71100000001</v>
+      </c>
+      <c r="N8">
+        <v>192655.19799999997</v>
+      </c>
+      <c r="O8">
+        <v>164806.25900000002</v>
+      </c>
+      <c r="P8">
+        <v>217805.68900000001</v>
+      </c>
+      <c r="Q8">
+        <v>186385.07</v>
+      </c>
+      <c r="R8">
+        <v>121807.886</v>
+      </c>
+      <c r="S8">
+        <v>169666.81399999998</v>
+      </c>
+      <c r="T8">
+        <v>140587.04399999999</v>
+      </c>
+      <c r="U8">
+        <v>123418.64600000001</v>
+      </c>
+      <c r="V8">
+        <v>105467.56099999999</v>
+      </c>
+      <c r="W8">
+        <v>189310.07</v>
+      </c>
+      <c r="X8">
+        <v>208429.42800000001</v>
+      </c>
+      <c r="Y8">
+        <v>138406.139</v>
+      </c>
+      <c r="Z8">
+        <v>143787.89799999999</v>
+      </c>
+      <c r="AA8">
+        <v>164751.61499999999</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>139695.75599999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>3794825.7779750004</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>150828.08934999999</v>
+      </c>
+      <c r="F9">
+        <v>185933.77915000002</v>
+      </c>
+      <c r="G9">
+        <v>146152.45112499999</v>
+      </c>
+      <c r="H9">
+        <v>55283.449099999998</v>
+      </c>
+      <c r="I9">
+        <v>130869.6153</v>
+      </c>
+      <c r="J9">
+        <v>141423.57827500001</v>
+      </c>
+      <c r="K9">
+        <v>181045.62724999996</v>
+      </c>
+      <c r="L9">
+        <v>140858.69132499999</v>
+      </c>
+      <c r="M9">
+        <v>166852.10674999998</v>
+      </c>
+      <c r="N9">
+        <v>177245.30179999999</v>
+      </c>
+      <c r="O9">
+        <v>148690.00224999999</v>
+      </c>
+      <c r="P9">
+        <v>179691.456275</v>
+      </c>
+      <c r="Q9">
+        <v>155893.53509999998</v>
+      </c>
+      <c r="R9">
+        <v>94513.697725000005</v>
+      </c>
+      <c r="S9">
+        <v>165140.16009999998</v>
+      </c>
+      <c r="T9">
+        <v>176695.11892500002</v>
+      </c>
+      <c r="U9">
+        <v>130160.4871</v>
+      </c>
+      <c r="V9">
+        <v>118494.16085</v>
+      </c>
+      <c r="W9">
+        <v>174946.03664999999</v>
+      </c>
+      <c r="X9">
+        <v>224199.91195000004</v>
+      </c>
+      <c r="Y9">
+        <v>172173.37794999999</v>
+      </c>
+      <c r="Z9">
+        <v>197164.56927500002</v>
+      </c>
+      <c r="AA9">
+        <v>200404.65499999997</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>180165.91940000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>-33695.384349999993</v>
+      </c>
+      <c r="F10">
+        <v>-3326.1421500000288</v>
+      </c>
+      <c r="G10">
+        <v>-32081.520124999995</v>
+      </c>
+      <c r="H10">
+        <v>38559.7019</v>
+      </c>
+      <c r="I10">
+        <v>94334.60169999997</v>
+      </c>
+      <c r="J10">
+        <v>14874.179724999965</v>
+      </c>
+      <c r="K10">
+        <v>71983.370750000002</v>
+      </c>
+      <c r="L10">
+        <v>-49671.390324999986</v>
+      </c>
+      <c r="M10">
+        <v>9420.6042500000331</v>
+      </c>
+      <c r="N10">
+        <v>15409.896199999988</v>
+      </c>
+      <c r="O10">
+        <v>16116.25675000003</v>
+      </c>
+      <c r="P10">
+        <v>38114.232725000009</v>
+      </c>
+      <c r="Q10">
+        <v>30491.534900000028</v>
+      </c>
+      <c r="R10">
+        <v>27294.188274999993</v>
+      </c>
+      <c r="S10">
+        <v>4526.6539000000048</v>
+      </c>
+      <c r="T10">
+        <v>-36108.074925000023</v>
+      </c>
+      <c r="U10">
+        <v>-6741.8410999999905</v>
+      </c>
+      <c r="V10">
+        <v>-13026.599850000013</v>
+      </c>
+      <c r="W10">
+        <v>14364.033350000012</v>
+      </c>
+      <c r="X10">
+        <v>-15770.483950000023</v>
+      </c>
+      <c r="Y10">
+        <v>-33767.238949999999</v>
+      </c>
+      <c r="Z10">
+        <v>-53376.67127500003</v>
+      </c>
+      <c r="AA10">
+        <v>-35653.039999999979</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>-40470.163400000049</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2252,7 +2910,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2851,6 +3509,255 @@
       </c>
       <c r="AB7" s="1">
         <v>468.93175336814295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>8502.5199999999986</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>389.31</v>
+      </c>
+      <c r="F8">
+        <v>409.08000000000004</v>
+      </c>
+      <c r="G8">
+        <v>375.13</v>
+      </c>
+      <c r="H8">
+        <v>218.01000000000005</v>
+      </c>
+      <c r="I8">
+        <v>368.40999999999997</v>
+      </c>
+      <c r="J8">
+        <v>368.54</v>
+      </c>
+      <c r="K8">
+        <v>439.28</v>
+      </c>
+      <c r="L8">
+        <v>261.02</v>
+      </c>
+      <c r="M8">
+        <v>339.4</v>
+      </c>
+      <c r="N8">
+        <v>356.74</v>
+      </c>
+      <c r="O8">
+        <v>361.91999999999996</v>
+      </c>
+      <c r="P8">
+        <v>459.65</v>
+      </c>
+      <c r="Q8">
+        <v>390.03999999999996</v>
+      </c>
+      <c r="R8">
+        <v>252.47</v>
+      </c>
+      <c r="S8">
+        <v>388.63</v>
+      </c>
+      <c r="T8">
+        <v>378.58</v>
+      </c>
+      <c r="U8">
+        <v>311.7</v>
+      </c>
+      <c r="V8">
+        <v>254.73000000000002</v>
+      </c>
+      <c r="W8">
+        <v>344.31</v>
+      </c>
+      <c r="X8">
+        <v>429.57000000000005</v>
+      </c>
+      <c r="Y8">
+        <v>297.61</v>
+      </c>
+      <c r="Z8">
+        <v>329.78999999999996</v>
+      </c>
+      <c r="AA8">
+        <v>373.16</v>
+      </c>
+      <c r="AB8">
+        <v>405.44000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>448.88179998400477</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>300.8725822609232</v>
+      </c>
+      <c r="F9">
+        <v>446.38612740784191</v>
+      </c>
+      <c r="G9">
+        <v>304.08373363900512</v>
+      </c>
+      <c r="H9">
+        <v>430.45342415485516</v>
+      </c>
+      <c r="I9">
+        <v>611.28692760782826</v>
+      </c>
+      <c r="J9">
+        <v>424.09984804905832</v>
+      </c>
+      <c r="K9">
+        <v>576.00846384993622</v>
+      </c>
+      <c r="L9">
+        <v>349.3498620795342</v>
+      </c>
+      <c r="M9">
+        <v>519.36567766647033</v>
+      </c>
+      <c r="N9">
+        <v>540.04372372035652</v>
+      </c>
+      <c r="O9">
+        <v>455.36654232979674</v>
+      </c>
+      <c r="P9">
+        <v>473.8511671924291</v>
+      </c>
+      <c r="Q9">
+        <v>477.86142446928528</v>
+      </c>
+      <c r="R9">
+        <v>482.46479185645819</v>
+      </c>
+      <c r="S9">
+        <v>436.57672850783518</v>
+      </c>
+      <c r="T9">
+        <v>371.35359501294312</v>
+      </c>
+      <c r="U9">
+        <v>395.95330766762919</v>
+      </c>
+      <c r="V9">
+        <v>414.03667019981935</v>
+      </c>
+      <c r="W9">
+        <v>549.82448955882785</v>
+      </c>
+      <c r="X9">
+        <v>485.20480480480478</v>
+      </c>
+      <c r="Y9">
+        <v>465.05876482645067</v>
+      </c>
+      <c r="Z9">
+        <v>435.998356529913</v>
+      </c>
+      <c r="AA9">
+        <v>441.50395272805224</v>
+      </c>
+      <c r="AB9">
+        <v>344.55346290449876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>446.31777143423375</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>387.4241333384706</v>
+      </c>
+      <c r="F10">
+        <v>454.51691392881588</v>
+      </c>
+      <c r="G10">
+        <v>389.6048066670221</v>
+      </c>
+      <c r="H10">
+        <v>253.58217100133015</v>
+      </c>
+      <c r="I10">
+        <v>355.22818408837986</v>
+      </c>
+      <c r="J10">
+        <v>383.740104941119</v>
+      </c>
+      <c r="K10">
+        <v>412.1417484292478</v>
+      </c>
+      <c r="L10">
+        <v>539.64712023982838</v>
+      </c>
+      <c r="M10">
+        <v>491.60903579846786</v>
+      </c>
+      <c r="N10">
+        <v>496.84728878174576</v>
+      </c>
+      <c r="O10">
+        <v>410.83665520004422</v>
+      </c>
+      <c r="P10">
+        <v>390.93104813445018</v>
+      </c>
+      <c r="Q10">
+        <v>399.68601963901136</v>
+      </c>
+      <c r="R10">
+        <v>374.35615211708324</v>
+      </c>
+      <c r="S10">
+        <v>424.92900728199055</v>
+      </c>
+      <c r="T10">
+        <v>466.73125607533422</v>
+      </c>
+      <c r="U10">
+        <v>417.58257009945464</v>
+      </c>
+      <c r="V10">
+        <v>465.17552251403441</v>
+      </c>
+      <c r="W10">
+        <v>508.10617365165109</v>
+      </c>
+      <c r="X10">
+        <v>521.91706113089833</v>
+      </c>
+      <c r="Y10">
+        <v>578.52013692416244</v>
+      </c>
+      <c r="Z10">
+        <v>597.84884100488205</v>
+      </c>
+      <c r="AA10">
+        <v>537.04752653017465</v>
+      </c>
+      <c r="AB10">
+        <v>444.37134816495666</v>
       </c>
     </row>
   </sheetData>
